--- a/pesantren/data mabaiz/bbo/BBO Libur Kenaikan Kelas.xlsx
+++ b/pesantren/data mabaiz/bbo/BBO Libur Kenaikan Kelas.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20395"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zen\data-mabaiz\bbo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZEN-PROJECT\zen\pesantren\data mabaiz\bbo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FADADAF8-140D-4DDE-896C-10B9DF923AB5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42DE4C57-C259-4FCF-964C-5EF593AA4CAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11310" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="libur akhir tahun 2023" sheetId="3" r:id="rId3"/>
+    <sheet name="pembagian vc" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'libur akhir tahun 2023'!$A$1:$E$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Sheet1!$A$1:$W$50</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet2!$A$1:$H$36</definedName>
   </definedNames>
@@ -25,12 +28,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="158">
   <si>
     <t>MUTABA'AH YAUMIYAH</t>
   </si>
@@ -332,12 +344,249 @@
   <si>
     <t>Samarinda, ………….................. 2023</t>
   </si>
+  <si>
+    <t>16 Desember 2023</t>
+  </si>
+  <si>
+    <t>MUROJA'AH 2                  (Pukul 09.00 - 10.00)</t>
+  </si>
+  <si>
+    <t>MUROJA'AH 3                  (Ba'da Maghrib)</t>
+  </si>
+  <si>
+    <t>MUROJA'AH 1                (Ba'da Subuh)</t>
+  </si>
+  <si>
+    <t>SATU HALAQAH, MURAJAAH SATU JUZ</t>
+  </si>
+  <si>
+    <t>17 Desember 2023</t>
+  </si>
+  <si>
+    <t>18 Desember 2023</t>
+  </si>
+  <si>
+    <t>19 Desember 2023</t>
+  </si>
+  <si>
+    <t>20 Desember 2023</t>
+  </si>
+  <si>
+    <t>21 Desember 2023</t>
+  </si>
+  <si>
+    <t>22 Desember 2023</t>
+  </si>
+  <si>
+    <t>23 Desember 2023</t>
+  </si>
+  <si>
+    <t>24 Desember 2023</t>
+  </si>
+  <si>
+    <t>25 Desember 2023</t>
+  </si>
+  <si>
+    <t>26 Desember 2023</t>
+  </si>
+  <si>
+    <t>27 Desember 2023</t>
+  </si>
+  <si>
+    <t>28 Desember 2023</t>
+  </si>
+  <si>
+    <t>29 Desember 2023</t>
+  </si>
+  <si>
+    <t>30 Desember 2023</t>
+  </si>
+  <si>
+    <t>31 Desember 2023</t>
+  </si>
+  <si>
+    <t>1 Januari 2024</t>
+  </si>
+  <si>
+    <t>2 Januari 2024</t>
+  </si>
+  <si>
+    <t>* Kolom muroja'ah diisi dengan nomor juz</t>
+  </si>
+  <si>
+    <t>* Orang Tua memberikan paraf setiap hari setelah ananda selesai murajaah 3 juz</t>
+  </si>
+  <si>
+    <t>* Tanggal-tanggal yang ditebalkan adalah sesi sima'an tahfidz via tatap muka daring</t>
+  </si>
+  <si>
+    <t>AHMAD ABDULLAH KHOLISH</t>
+  </si>
+  <si>
+    <t>AIKO ZAHWA SYAROFANA</t>
+  </si>
+  <si>
+    <t>AISYAH MUWAHHIDAH</t>
+  </si>
+  <si>
+    <t>AISYAH PUTRI AZ ZAHRA</t>
+  </si>
+  <si>
+    <t>AMILA NAHWAL HAQ</t>
+  </si>
+  <si>
+    <t>AMMAR HUDA AL FARISY</t>
+  </si>
+  <si>
+    <t>AUDREY CALLYSTA FATIH</t>
+  </si>
+  <si>
+    <t>HANIF SYAIFULLOH</t>
+  </si>
+  <si>
+    <t>IFROYIM HABIBULLAH FATAH</t>
+  </si>
+  <si>
+    <t>KAMIL KHAIRUL AZAM</t>
+  </si>
+  <si>
+    <t>KHANZA NUR ASSYIFA</t>
+  </si>
+  <si>
+    <t>MIRZA FAEYZA RAZIQ RAMADHAN</t>
+  </si>
+  <si>
+    <t>MUHAMMAD DAFFA ABDUL RAFI</t>
+  </si>
+  <si>
+    <t>MUHAMMAD NIZAM GHIFARI</t>
+  </si>
+  <si>
+    <t>MUHAMMAD NUR RISKI</t>
+  </si>
+  <si>
+    <t>NADIL AL FAYYADH</t>
+  </si>
+  <si>
+    <t>SYIFA SALSABILA</t>
+  </si>
+  <si>
+    <t>WILDAN AKHRAM PRATAMA</t>
+  </si>
+  <si>
+    <t>WILDHAN HABIBI ARIYADI</t>
+  </si>
+  <si>
+    <t>ZIDANE AL ASYTAR SYAKUR</t>
+  </si>
+  <si>
+    <t>ZUFAR LAHID ROYYAN ASHIDIK</t>
+  </si>
+  <si>
+    <t>AKMAL AL JUNDI</t>
+  </si>
+  <si>
+    <t>ALYA' ZULFA RAMADHANI</t>
+  </si>
+  <si>
+    <t>IDRIS</t>
+  </si>
+  <si>
+    <t>MUHAMMAD AL'PAHREZY</t>
+  </si>
+  <si>
+    <t>MUHAMMAD FAISAL ASY SYAMS</t>
+  </si>
+  <si>
+    <t>MUHAMMAD FAKHRI</t>
+  </si>
+  <si>
+    <t>MUHAMMAD JAMIL ASY SYAHID</t>
+  </si>
+  <si>
+    <t>NAJWA QURROTA AINI</t>
+  </si>
+  <si>
+    <t>NUR INTAN AMIRAH SHAFIQH</t>
+  </si>
+  <si>
+    <t>RUWAYFI RAFFA ALHAMDANI</t>
+  </si>
+  <si>
+    <t>SEKAR ARUM WIJAYANTI</t>
+  </si>
+  <si>
+    <t>ARVIANDOW FEBRIANSYAH</t>
+  </si>
+  <si>
+    <t>AYATURRAHMAN SHINRA AUFA</t>
+  </si>
+  <si>
+    <t>HAZWAN HAFIZUDDIN</t>
+  </si>
+  <si>
+    <t>KHALID GHAZY MURTADHO</t>
+  </si>
+  <si>
+    <t>MILA NAJIYAH</t>
+  </si>
+  <si>
+    <t>MUHAMMAD RADJA MAHESA PAHLEVI</t>
+  </si>
+  <si>
+    <t>MUHAMMAD RAYHAN</t>
+  </si>
+  <si>
+    <t>NAJWA HANI FILLAH</t>
+  </si>
+  <si>
+    <t>NAYLA IZZATUL HASANAH</t>
+  </si>
+  <si>
+    <t>NIDA KHALWATUS SYAHIDAH</t>
+  </si>
+  <si>
+    <t>RIHAL MUHARRIKUL HAQ</t>
+  </si>
+  <si>
+    <t>SAFARAZ AUFA RIFDAH</t>
+  </si>
+  <si>
+    <t>WALDAN FA'IQ HASAN</t>
+  </si>
+  <si>
+    <t>Ustadz Iman</t>
+  </si>
+  <si>
+    <t>Ustadz Zen</t>
+  </si>
+  <si>
+    <t>Ustadz Zaki</t>
+  </si>
+  <si>
+    <t>Ustadz Hanif</t>
+  </si>
+  <si>
+    <t>Ustadz Latip</t>
+  </si>
+  <si>
+    <t>Ustadzah Suryani</t>
+  </si>
+  <si>
+    <t>Ustadzah Orin</t>
+  </si>
+  <si>
+    <t>Ustadzah Marwa</t>
+  </si>
+  <si>
+    <t>Ustadzah Afif</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -391,6 +640,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -561,7 +816,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -604,6 +859,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -637,6 +895,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -658,11 +919,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -949,8 +1216,8 @@
   </sheetPr>
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -962,76 +1229,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
     </row>
     <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
     </row>
     <row r="4" spans="1:8" s="10" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="17" t="s">
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="18" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="10" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="25" t="s">
+      <c r="A5" s="18"/>
+      <c r="B5" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
     </row>
     <row r="6" spans="1:8" s="10" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="18"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
     </row>
     <row r="7" spans="1:8" s="10" customFormat="1" ht="25.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
@@ -1342,8 +1609,8 @@
   </sheetPr>
   <dimension ref="A1:W50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:W50"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1354,95 +1621,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
-      <c r="W1" s="27"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29"/>
     </row>
     <row r="2" spans="1:23" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="27"/>
-      <c r="W2" s="27"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="29"/>
+      <c r="V2" s="29"/>
+      <c r="W2" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="28"/>
-      <c r="S4" s="28"/>
-      <c r="T4" s="28"/>
-      <c r="U4" s="28"/>
-      <c r="V4" s="28"/>
-      <c r="W4" s="28" t="s">
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="30"/>
+      <c r="T4" s="30"/>
+      <c r="U4" s="30"/>
+      <c r="V4" s="30"/>
+      <c r="W4" s="30" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="29"/>
-      <c r="B5" s="29"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="31"/>
       <c r="C5" s="7">
         <v>11</v>
       </c>
@@ -1522,34 +1789,34 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="W5" s="29"/>
+      <c r="W5" s="31"/>
     </row>
     <row r="6" spans="1:23" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="32"/>
-      <c r="O6" s="32"/>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="32"/>
-      <c r="R6" s="32"/>
-      <c r="S6" s="32"/>
-      <c r="T6" s="32"/>
-      <c r="U6" s="32"/>
-      <c r="V6" s="32"/>
-      <c r="W6" s="33"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="34"/>
+      <c r="U6" s="34"/>
+      <c r="V6" s="34"/>
+      <c r="W6" s="35"/>
     </row>
     <row r="7" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -1699,31 +1966,31 @@
       <c r="W11" s="1"/>
     </row>
     <row r="12" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="21"/>
-      <c r="S12" s="21"/>
-      <c r="T12" s="21"/>
-      <c r="U12" s="21"/>
-      <c r="V12" s="21"/>
-      <c r="W12" s="22"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="22"/>
+      <c r="U12" s="22"/>
+      <c r="V12" s="22"/>
+      <c r="W12" s="23"/>
     </row>
     <row r="13" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -2045,31 +2312,31 @@
       <c r="W23" s="1"/>
     </row>
     <row r="24" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="21"/>
-      <c r="Q24" s="21"/>
-      <c r="R24" s="21"/>
-      <c r="S24" s="21"/>
-      <c r="T24" s="21"/>
-      <c r="U24" s="21"/>
-      <c r="V24" s="21"/>
-      <c r="W24" s="22"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="22"/>
+      <c r="S24" s="22"/>
+      <c r="T24" s="22"/>
+      <c r="U24" s="22"/>
+      <c r="V24" s="22"/>
+      <c r="W24" s="23"/>
     </row>
     <row r="25" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
@@ -2130,31 +2397,31 @@
       <c r="W26" s="1"/>
     </row>
     <row r="27" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="20" t="s">
+      <c r="A27" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="21"/>
-      <c r="P27" s="21"/>
-      <c r="Q27" s="21"/>
-      <c r="R27" s="21"/>
-      <c r="S27" s="21"/>
-      <c r="T27" s="21"/>
-      <c r="U27" s="21"/>
-      <c r="V27" s="21"/>
-      <c r="W27" s="22"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="22"/>
+      <c r="Q27" s="22"/>
+      <c r="R27" s="22"/>
+      <c r="S27" s="22"/>
+      <c r="T27" s="22"/>
+      <c r="U27" s="22"/>
+      <c r="V27" s="22"/>
+      <c r="W27" s="23"/>
     </row>
     <row r="28" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
@@ -2302,31 +2569,31 @@
       <c r="W32" s="1"/>
     </row>
     <row r="33" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="20" t="s">
+      <c r="A33" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="21"/>
-      <c r="M33" s="21"/>
-      <c r="N33" s="21"/>
-      <c r="O33" s="21"/>
-      <c r="P33" s="21"/>
-      <c r="Q33" s="21"/>
-      <c r="R33" s="21"/>
-      <c r="S33" s="21"/>
-      <c r="T33" s="21"/>
-      <c r="U33" s="21"/>
-      <c r="V33" s="21"/>
-      <c r="W33" s="22"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="22"/>
+      <c r="O33" s="22"/>
+      <c r="P33" s="22"/>
+      <c r="Q33" s="22"/>
+      <c r="R33" s="22"/>
+      <c r="S33" s="22"/>
+      <c r="T33" s="22"/>
+      <c r="U33" s="22"/>
+      <c r="V33" s="22"/>
+      <c r="W33" s="23"/>
     </row>
     <row r="34" spans="1:23" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
@@ -2395,213 +2662,213 @@
       <c r="A38" s="9">
         <v>1</v>
       </c>
-      <c r="B38" s="34" t="s">
+      <c r="B38" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="34"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="34"/>
-      <c r="L38" s="34"/>
-      <c r="M38" s="34"/>
-      <c r="N38" s="34"/>
-      <c r="O38" s="34"/>
-      <c r="P38" s="34"/>
-      <c r="Q38" s="34"/>
-      <c r="R38" s="34"/>
-      <c r="S38" s="34"/>
-      <c r="T38" s="34"/>
-      <c r="U38" s="34"/>
-      <c r="V38" s="34"/>
-      <c r="W38" s="34"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="28"/>
+      <c r="K38" s="28"/>
+      <c r="L38" s="28"/>
+      <c r="M38" s="28"/>
+      <c r="N38" s="28"/>
+      <c r="O38" s="28"/>
+      <c r="P38" s="28"/>
+      <c r="Q38" s="28"/>
+      <c r="R38" s="28"/>
+      <c r="S38" s="28"/>
+      <c r="T38" s="28"/>
+      <c r="U38" s="28"/>
+      <c r="V38" s="28"/>
+      <c r="W38" s="28"/>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>2</v>
       </c>
-      <c r="B39" s="35" t="s">
+      <c r="B39" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="C39" s="35"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="35"/>
-      <c r="G39" s="35"/>
-      <c r="H39" s="35"/>
-      <c r="I39" s="35"/>
-      <c r="J39" s="35"/>
-      <c r="K39" s="35"/>
-      <c r="L39" s="35"/>
-      <c r="M39" s="35"/>
-      <c r="N39" s="35"/>
-      <c r="O39" s="35"/>
-      <c r="P39" s="35"/>
-      <c r="Q39" s="35"/>
-      <c r="R39" s="35"/>
-      <c r="S39" s="35"/>
-      <c r="T39" s="35"/>
-      <c r="U39" s="35"/>
-      <c r="V39" s="35"/>
-      <c r="W39" s="35"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="36"/>
+      <c r="K39" s="36"/>
+      <c r="L39" s="36"/>
+      <c r="M39" s="36"/>
+      <c r="N39" s="36"/>
+      <c r="O39" s="36"/>
+      <c r="P39" s="36"/>
+      <c r="Q39" s="36"/>
+      <c r="R39" s="36"/>
+      <c r="S39" s="36"/>
+      <c r="T39" s="36"/>
+      <c r="U39" s="36"/>
+      <c r="V39" s="36"/>
+      <c r="W39" s="36"/>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B40" s="34" t="s">
+      <c r="B40" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="34"/>
-      <c r="D40" s="34"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="34"/>
-      <c r="H40" s="34"/>
-      <c r="I40" s="34"/>
-      <c r="J40" s="34"/>
-      <c r="K40" s="34"/>
-      <c r="L40" s="34"/>
-      <c r="M40" s="34"/>
-      <c r="N40" s="34"/>
-      <c r="O40" s="34"/>
-      <c r="P40" s="34"/>
-      <c r="Q40" s="34"/>
-      <c r="R40" s="34"/>
-      <c r="S40" s="34"/>
-      <c r="T40" s="34"/>
-      <c r="U40" s="34"/>
-      <c r="V40" s="34"/>
-      <c r="W40" s="34"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="28"/>
+      <c r="K40" s="28"/>
+      <c r="L40" s="28"/>
+      <c r="M40" s="28"/>
+      <c r="N40" s="28"/>
+      <c r="O40" s="28"/>
+      <c r="P40" s="28"/>
+      <c r="Q40" s="28"/>
+      <c r="R40" s="28"/>
+      <c r="S40" s="28"/>
+      <c r="T40" s="28"/>
+      <c r="U40" s="28"/>
+      <c r="V40" s="28"/>
+      <c r="W40" s="28"/>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B41" s="34" t="s">
+      <c r="B41" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="34"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="34"/>
-      <c r="I41" s="34"/>
-      <c r="J41" s="34"/>
-      <c r="K41" s="34"/>
-      <c r="L41" s="34"/>
-      <c r="M41" s="34"/>
-      <c r="N41" s="34"/>
-      <c r="O41" s="34"/>
-      <c r="P41" s="34"/>
-      <c r="Q41" s="34"/>
-      <c r="R41" s="34"/>
-      <c r="S41" s="34"/>
-      <c r="T41" s="34"/>
-      <c r="U41" s="34"/>
-      <c r="V41" s="34"/>
-      <c r="W41" s="34"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="28"/>
+      <c r="K41" s="28"/>
+      <c r="L41" s="28"/>
+      <c r="M41" s="28"/>
+      <c r="N41" s="28"/>
+      <c r="O41" s="28"/>
+      <c r="P41" s="28"/>
+      <c r="Q41" s="28"/>
+      <c r="R41" s="28"/>
+      <c r="S41" s="28"/>
+      <c r="T41" s="28"/>
+      <c r="U41" s="28"/>
+      <c r="V41" s="28"/>
+      <c r="W41" s="28"/>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B42" s="34" t="s">
+      <c r="B42" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="C42" s="34"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="34"/>
-      <c r="H42" s="34"/>
-      <c r="I42" s="34"/>
-      <c r="J42" s="34"/>
-      <c r="K42" s="34"/>
-      <c r="L42" s="34"/>
-      <c r="M42" s="34"/>
-      <c r="N42" s="34"/>
-      <c r="O42" s="34"/>
-      <c r="P42" s="34"/>
-      <c r="Q42" s="34"/>
-      <c r="R42" s="34"/>
-      <c r="S42" s="34"/>
-      <c r="T42" s="34"/>
-      <c r="U42" s="34"/>
-      <c r="V42" s="34"/>
-      <c r="W42" s="34"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="28"/>
+      <c r="J42" s="28"/>
+      <c r="K42" s="28"/>
+      <c r="L42" s="28"/>
+      <c r="M42" s="28"/>
+      <c r="N42" s="28"/>
+      <c r="O42" s="28"/>
+      <c r="P42" s="28"/>
+      <c r="Q42" s="28"/>
+      <c r="R42" s="28"/>
+      <c r="S42" s="28"/>
+      <c r="T42" s="28"/>
+      <c r="U42" s="28"/>
+      <c r="V42" s="28"/>
+      <c r="W42" s="28"/>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>3</v>
       </c>
-      <c r="B43" s="34" t="s">
+      <c r="B43" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="C43" s="34"/>
-      <c r="D43" s="34"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="34"/>
-      <c r="I43" s="34"/>
-      <c r="J43" s="34"/>
-      <c r="K43" s="34"/>
-      <c r="L43" s="34"/>
-      <c r="M43" s="34"/>
-      <c r="N43" s="34"/>
-      <c r="O43" s="34"/>
-      <c r="P43" s="34"/>
-      <c r="Q43" s="34"/>
-      <c r="R43" s="34"/>
-      <c r="S43" s="34"/>
-      <c r="T43" s="34"/>
-      <c r="U43" s="34"/>
-      <c r="V43" s="34"/>
-      <c r="W43" s="34"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="28"/>
+      <c r="I43" s="28"/>
+      <c r="J43" s="28"/>
+      <c r="K43" s="28"/>
+      <c r="L43" s="28"/>
+      <c r="M43" s="28"/>
+      <c r="N43" s="28"/>
+      <c r="O43" s="28"/>
+      <c r="P43" s="28"/>
+      <c r="Q43" s="28"/>
+      <c r="R43" s="28"/>
+      <c r="S43" s="28"/>
+      <c r="T43" s="28"/>
+      <c r="U43" s="28"/>
+      <c r="V43" s="28"/>
+      <c r="W43" s="28"/>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B45" s="34" t="s">
+      <c r="B45" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="C45" s="34"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="34"/>
-      <c r="F45" s="34"/>
-      <c r="G45" s="34"/>
-      <c r="H45" s="34"/>
-      <c r="I45" s="34"/>
-      <c r="J45" s="34"/>
-      <c r="K45" s="34"/>
-      <c r="L45" s="34"/>
-      <c r="M45" s="34"/>
-      <c r="N45" s="34"/>
-      <c r="O45" s="34"/>
-      <c r="P45" s="34"/>
-      <c r="Q45" s="34"/>
-      <c r="R45" s="34"/>
-      <c r="S45" s="34"/>
-      <c r="T45" s="34"/>
-      <c r="U45" s="34"/>
-      <c r="V45" s="34"/>
-      <c r="W45" s="34"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="28"/>
+      <c r="H45" s="28"/>
+      <c r="I45" s="28"/>
+      <c r="J45" s="28"/>
+      <c r="K45" s="28"/>
+      <c r="L45" s="28"/>
+      <c r="M45" s="28"/>
+      <c r="N45" s="28"/>
+      <c r="O45" s="28"/>
+      <c r="P45" s="28"/>
+      <c r="Q45" s="28"/>
+      <c r="R45" s="28"/>
+      <c r="S45" s="28"/>
+      <c r="T45" s="28"/>
+      <c r="U45" s="28"/>
+      <c r="V45" s="28"/>
+      <c r="W45" s="28"/>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B46" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I46" s="30" t="s">
+      <c r="I46" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="J46" s="30"/>
-      <c r="K46" s="30"/>
-      <c r="L46" s="30"/>
-      <c r="M46" s="30"/>
-      <c r="N46" s="30"/>
-      <c r="O46" s="30"/>
-      <c r="P46" s="30"/>
-      <c r="Q46" s="30"/>
-      <c r="R46" s="30"/>
-      <c r="S46" s="30"/>
-      <c r="T46" s="30"/>
-      <c r="U46" s="30"/>
-      <c r="V46" s="30"/>
+      <c r="J46" s="32"/>
+      <c r="K46" s="32"/>
+      <c r="L46" s="32"/>
+      <c r="M46" s="32"/>
+      <c r="N46" s="32"/>
+      <c r="O46" s="32"/>
+      <c r="P46" s="32"/>
+      <c r="Q46" s="32"/>
+      <c r="R46" s="32"/>
+      <c r="S46" s="32"/>
+      <c r="T46" s="32"/>
+      <c r="U46" s="32"/>
+      <c r="V46" s="32"/>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B47" s="4"/>
@@ -2616,32 +2883,25 @@
       <c r="B50" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="I50" s="30" t="s">
+      <c r="I50" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="J50" s="30"/>
-      <c r="K50" s="30"/>
-      <c r="L50" s="30"/>
-      <c r="M50" s="30"/>
-      <c r="N50" s="30"/>
-      <c r="O50" s="30"/>
-      <c r="P50" s="30"/>
-      <c r="Q50" s="30"/>
-      <c r="R50" s="30"/>
-      <c r="S50" s="30"/>
-      <c r="T50" s="30"/>
-      <c r="U50" s="30"/>
-      <c r="V50" s="30"/>
+      <c r="J50" s="32"/>
+      <c r="K50" s="32"/>
+      <c r="L50" s="32"/>
+      <c r="M50" s="32"/>
+      <c r="N50" s="32"/>
+      <c r="O50" s="32"/>
+      <c r="P50" s="32"/>
+      <c r="Q50" s="32"/>
+      <c r="R50" s="32"/>
+      <c r="S50" s="32"/>
+      <c r="T50" s="32"/>
+      <c r="U50" s="32"/>
+      <c r="V50" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B41:W41"/>
-    <mergeCell ref="B42:W42"/>
-    <mergeCell ref="B43:W43"/>
-    <mergeCell ref="B45:W45"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:W2"/>
-    <mergeCell ref="A4:A5"/>
     <mergeCell ref="I50:V50"/>
     <mergeCell ref="I46:V46"/>
     <mergeCell ref="W4:W5"/>
@@ -2655,9 +2915,522 @@
     <mergeCell ref="B38:W38"/>
     <mergeCell ref="B39:W39"/>
     <mergeCell ref="B40:W40"/>
+    <mergeCell ref="B41:W41"/>
+    <mergeCell ref="B42:W42"/>
+    <mergeCell ref="B43:W43"/>
+    <mergeCell ref="B45:W45"/>
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:W2"/>
+    <mergeCell ref="A4:A5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.5" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
   <pageSetup paperSize="10000" scale="80" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80FAF2B4-A748-4054-BAE7-9E77068FAD7F}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:E29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="2" max="4" width="24" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+    </row>
+    <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+    </row>
+    <row r="4" spans="1:5" s="10" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="10" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="18"/>
+      <c r="B5" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" s="24"/>
+    </row>
+    <row r="6" spans="1:5" s="10" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="19"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="25"/>
+    </row>
+    <row r="7" spans="1:5" s="10" customFormat="1" ht="25.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+    </row>
+    <row r="8" spans="1:5" s="10" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+    </row>
+    <row r="9" spans="1:5" s="10" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+    </row>
+    <row r="10" spans="1:5" s="10" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="16"/>
+    </row>
+    <row r="11" spans="1:5" s="10" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+    </row>
+    <row r="12" spans="1:5" s="10" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+    </row>
+    <row r="13" spans="1:5" s="10" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+    </row>
+    <row r="14" spans="1:5" s="10" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+    </row>
+    <row r="15" spans="1:5" s="10" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+    </row>
+    <row r="16" spans="1:5" s="10" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+    </row>
+    <row r="17" spans="1:5" s="10" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+    </row>
+    <row r="18" spans="1:5" s="10" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+    </row>
+    <row r="19" spans="1:5" s="10" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+    </row>
+    <row r="20" spans="1:5" s="10" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+    </row>
+    <row r="21" spans="1:5" s="10" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+    </row>
+    <row r="22" spans="1:5" s="10" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+    </row>
+    <row r="23" spans="1:5" s="10" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+    </row>
+    <row r="24" spans="1:5" s="10" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+    </row>
+    <row r="25" spans="1:5" s="10" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="37"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="10000" scale="68" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4D305C-AD5A-4796-8BEE-65AD99DF2BFE}">
+  <dimension ref="A1:N21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B1" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="G1" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="L1" s="39" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="L2" s="39" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="G3" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="L3" s="39" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="G4" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="L4" s="39" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="G5" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="K5" s="39" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="G6" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="L6" s="39" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="G7" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="L7" s="39" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="F8" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="K8" s="39" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="F9" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="K9" s="39" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="G10" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="K10" s="39" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="F11" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="L11" s="39" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="K12" s="39" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="L13" s="39" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="39" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="F15" t="s">
+        <v>149</v>
+      </c>
+      <c r="G15" t="s">
+        <v>150</v>
+      </c>
+      <c r="H15" t="s">
+        <v>151</v>
+      </c>
+      <c r="I15" t="s">
+        <v>152</v>
+      </c>
+      <c r="J15" t="s">
+        <v>153</v>
+      </c>
+      <c r="K15" t="s">
+        <v>154</v>
+      </c>
+      <c r="L15" t="s">
+        <v>155</v>
+      </c>
+      <c r="M15" t="s">
+        <v>156</v>
+      </c>
+      <c r="N15" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="39" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="39" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="39" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="39" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="39" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="39" t="s">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>